--- a/data/Thorgal/annotations/agreement/_persos.xlsx
+++ b/data/Thorgal/annotations/agreement/_persos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\eclipse\workspaces\Networks\NaNet\data\Thorgal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vincent\eclipse\workspaces\Networks\NaNet\data\Thorgal\annotations\agreement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB7FF49-E2AE-409B-B806-82D9219FFEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5385F760-3F80-4B26-A40C-835265211AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T06" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Aaricia Ganfalfsdottir</t>
-  </si>
-  <si>
     <t>Biarn</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>Sbire_6.20</t>
   </si>
   <si>
-    <t>Scientifiques_6.77</t>
-  </si>
-  <si>
     <t>Shardar-le-puissant</t>
   </si>
   <si>
@@ -330,9 +324,6 @@
     <t>Villageoises_20.3</t>
   </si>
   <si>
-    <t>Villgeoises_20.3</t>
-  </si>
-  <si>
     <t>Voleur_20.24.1</t>
   </si>
   <si>
@@ -468,7 +459,13 @@
     <t>Villageoises_K1.22</t>
   </si>
   <si>
-    <t>Walyries_K1.3</t>
+    <t>Scientifiques_6.7</t>
+  </si>
+  <si>
+    <t>Aaricia Gandalfsdottir</t>
+  </si>
+  <si>
+    <t>Walkyries_K1.3</t>
   </si>
 </sst>
 </file>
@@ -812,9 +809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -826,167 +823,167 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +997,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1012,142 +1009,142 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1158,11 +1155,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7925FE82-BE6B-4731-A7CA-9E89D65206AF}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1174,252 +1171,247 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1431,9 +1423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8875D08-3029-402F-B94A-DF4D869888E9}">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1445,227 +1437,227 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
